--- a/results/FrequencyTables/27278725_CA1.xlsx
+++ b/results/FrequencyTables/27278725_CA1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.000238706212329176</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.000179029659246882</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.000537088977740646</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00173062003938653</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.996121024049651</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.998150026854449</v>
       </c>
       <c r="I2">
-        <v>0.0102040816326531</v>
+        <v>0.000775795190069822</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.9676553082294e-05</v>
       </c>
       <c r="K2">
-        <v>0.102040816326531</v>
+        <v>0.138091543832428</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00125320761472817</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.99504684609417</v>
       </c>
       <c r="N2">
-        <v>0.102040816326531</v>
+        <v>0.131944858864952</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.998866145491436</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.998746792385272</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.000537088977740646</v>
       </c>
       <c r="R2">
-        <v>0.530612244897959</v>
+        <v>0.311153547771081</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00190964969863341</v>
       </c>
       <c r="T2">
-        <v>0.0102040816326531</v>
+        <v>0.166139523781106</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.000417735871576058</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.998746792385272</v>
       </c>
       <c r="W2">
-        <v>0.0510204081632653</v>
+        <v>0.0949453959539297</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00238706212329176</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.86734693877551</v>
+        <v>0.981082532672913</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999283881363012</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.999045175150683</v>
       </c>
       <c r="E3">
-        <v>0.0102040816326531</v>
+        <v>0.0659425911559348</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.000238706212329176</v>
       </c>
       <c r="G3">
-        <v>0.0102040816326531</v>
+        <v>0.000358059318493764</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000954824849316704</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.000119353106164588</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000179029659246882</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000775795190069822</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.99844840961986</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.000179029659246882</v>
       </c>
       <c r="N3">
-        <v>0.0102040816326531</v>
+        <v>0.000119353106164588</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.000417735871576058</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000417735871576058</v>
       </c>
       <c r="Q3">
-        <v>0.86734693877551</v>
+        <v>0.916631855344035</v>
       </c>
       <c r="R3">
-        <v>0.469387755102041</v>
+        <v>0.631079548845259</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00745956913528675</v>
       </c>
       <c r="T3">
-        <v>0.357142857142857</v>
+        <v>0.315330906486841</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.999164528256848</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00029838276541147</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00029838276541147</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>5.9676553082294e-05</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.000417735871576058</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.000238706212329176</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.000238706212329176</v>
       </c>
       <c r="E4">
-        <v>0.0612244897959184</v>
+        <v>0.0019693262517157</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00310318076027929</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000119353106164588</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.000417735871576058</v>
       </c>
       <c r="I4">
-        <v>0.959183673469388</v>
+        <v>0.998687115832189</v>
       </c>
       <c r="J4">
-        <v>0.0102040816326531</v>
+        <v>5.9676553082294e-05</v>
       </c>
       <c r="K4">
-        <v>0.897959183673469</v>
+        <v>0.855344035328519</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000119353106164588</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00435638837500746</v>
       </c>
       <c r="N4">
-        <v>0.887755102040816</v>
+        <v>0.864176165184699</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00059676553082294</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.000656442083905234</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00029838276541147</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.0327027510890971</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00179029659246882</v>
       </c>
       <c r="T4">
-        <v>0.0204081632653061</v>
+        <v>0.167810467267411</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.000238706212329176</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.000656442083905234</v>
       </c>
       <c r="W4">
-        <v>0.948979591836735</v>
+        <v>0.902011099838873</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.996896819239721</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.13265306122449</v>
+        <v>0.0164110520976308</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.000238706212329176</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.000119353106164588</v>
       </c>
       <c r="E5">
-        <v>0.928571428571429</v>
+        <v>0.928925225278988</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00029838276541147</v>
       </c>
       <c r="G5">
-        <v>0.989795918367347</v>
+        <v>0.999522587575342</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000358059318493764</v>
       </c>
       <c r="I5">
-        <v>0.0306122448979592</v>
+        <v>0.000358059318493764</v>
       </c>
       <c r="J5">
-        <v>0.989795918367347</v>
+        <v>0.999701617234589</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.000417735871576058</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000119353106164588</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000119353106164588</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00029838276541147</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>5.9676553082294e-05</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.000119353106164588</v>
       </c>
       <c r="Q5">
-        <v>0.13265306122449</v>
+        <v>0.0786536969624635</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0211851763442144</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.988780808020529</v>
       </c>
       <c r="T5">
-        <v>0.612244897959184</v>
+        <v>0.342304708480038</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000179029659246882</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.000238706212329176</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000358059318493764</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000537088977740646</v>
       </c>
     </row>
   </sheetData>
